--- a/release/train/ca_data/300365925.pdf.xlsx
+++ b/release/train/ca_data/300365925.pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cinnamon\nlp_live_demo\bidding documents\all_bidding_ca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaowh/Downloads/bidding_document_dataset/release/train/ca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D77452-BD1A-4F9C-84E3-F76F8606F9AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC9AD82-76E0-F444-92A1-1423ECC39EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="113">
   <si>
     <t>Page No</t>
   </si>
@@ -298,9 +298,6 @@
     <t>入札書締切日時;開札日時</t>
   </si>
   <si>
-    <t>令和2年3月9日（月）10時;開札日時</t>
-  </si>
-  <si>
     <t>＊質問箇所　ＴＥＬ／ＦＡＸ;＊質問箇所　ＴＥＬ／ＦＡＸ</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
   </si>
   <si>
     <t>＊資格申請送付先</t>
-  </si>
-  <si>
-    <t>＊質問箇所 所属／担当者;＊資格申請送付先　部署／担当者名</t>
   </si>
   <si>
     <t>＊入札書送付先;＊開札場所</t>
@@ -810,11 +804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="100.6640625" customWidth="1"/>
@@ -822,7 +816,7 @@
     <col min="4" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -868,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -888,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -914,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -934,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -954,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -974,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1000,7 +994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1020,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1046,7 +1040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1066,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1086,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1126,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1146,7 +1140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1166,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1226,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1246,12 +1240,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -1266,12 +1260,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1286,12 +1280,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -1306,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1326,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1346,12 +1340,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -1364,12 +1358,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -1382,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -1422,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -1442,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1462,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -1488,13 +1482,13 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -1513,11 +1507,8 @@
       <c r="F33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -1536,11 +1527,8 @@
       <c r="F34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -1560,13 +1548,13 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s">
         <v>93</v>
       </c>
-      <c r="H35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2</v>
       </c>
@@ -1586,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -1612,7 +1600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -1632,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -1652,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -1672,7 +1660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -1692,7 +1680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -1712,7 +1700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -1732,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -1752,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -1778,7 +1766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -1798,7 +1786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -1818,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -1838,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -1861,10 +1849,10 @@
         <v>91</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -1884,13 +1872,13 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" t="s">
         <v>97</v>
       </c>
-      <c r="H50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -1910,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" t="s">
         <v>98</v>
       </c>
-      <c r="H51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -1936,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -1956,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -1976,7 +1964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -1996,12 +1984,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" s="4">
         <v>55</v>
@@ -2016,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -2036,7 +2024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>3</v>
       </c>
@@ -2056,12 +2044,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="4">
         <v>58</v>
@@ -2076,12 +2064,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="4">
         <v>59</v>
@@ -2096,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>3</v>
       </c>
@@ -2116,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>3</v>
       </c>
@@ -2136,7 +2124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>3</v>
       </c>
@@ -2156,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>3</v>
       </c>
@@ -2176,7 +2164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>3</v>
       </c>
@@ -2196,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>3</v>
       </c>
@@ -2216,7 +2204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>3</v>
       </c>
@@ -2236,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -2256,7 +2244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>3</v>
       </c>
@@ -2276,7 +2264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>3</v>
       </c>
@@ -2296,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>3</v>
       </c>
@@ -2316,7 +2304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>3</v>
       </c>
@@ -2336,12 +2324,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" s="4">
         <v>72</v>
@@ -2356,12 +2344,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C74" s="4">
         <v>73</v>
@@ -2376,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>3</v>
       </c>
@@ -2396,7 +2384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>3</v>
       </c>
@@ -2416,12 +2404,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -2436,12 +2424,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>3</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="4">
         <v>77</v>
@@ -2456,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>3</v>
       </c>
@@ -2476,12 +2464,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="4">
         <v>79</v>
@@ -2496,7 +2484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -2516,7 +2504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -2536,7 +2524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -2556,12 +2544,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="4">
         <v>83</v>
@@ -2576,7 +2564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -2596,7 +2584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>4</v>
       </c>
@@ -2616,7 +2604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>4</v>
       </c>
@@ -2636,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>4</v>
       </c>
